--- a/Files/Total/xlsx Files/all_stocks.xlsx
+++ b/Files/Total/xlsx Files/all_stocks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Stock</t>
   </si>
@@ -52,13 +52,28 @@
     <t>-</t>
   </si>
   <si>
-    <t>173.67%</t>
-  </si>
-  <si>
-    <t>-4.45%</t>
-  </si>
-  <si>
-    <t>46.06%</t>
+    <t>34</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>253.0%</t>
+  </si>
+  <si>
+    <t>-5.1%</t>
+  </si>
+  <si>
+    <t>40.94%</t>
   </si>
   <si>
     <t>5.12%</t>
@@ -455,78 +470,78 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>34</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
       </c>
       <c r="D2">
         <v>102</v>
       </c>
       <c r="E2">
-        <v>8.210000000000001</v>
+        <v>10.59</v>
       </c>
       <c r="F2">
-        <v>279.14</v>
+        <v>360.06</v>
       </c>
       <c r="G2">
-        <v>177.14</v>
+        <v>258.06</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
       <c r="D3">
         <v>1360</v>
       </c>
       <c r="E3">
-        <v>38.22</v>
+        <v>37.96</v>
       </c>
       <c r="F3">
-        <v>1299.48</v>
+        <v>1290.64</v>
       </c>
       <c r="G3">
-        <v>-60.52</v>
+        <v>-69.36</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>-3</v>
-      </c>
-      <c r="C4">
-        <v>34</v>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
       </c>
       <c r="D4">
         <v>-102</v>
       </c>
       <c r="E4">
-        <v>49.66</v>
+        <v>47.92</v>
       </c>
       <c r="F4">
-        <v>-148.98</v>
+        <v>-143.76</v>
       </c>
       <c r="G4">
-        <v>-46.98</v>
+        <v>-41.76</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -552,7 +567,7 @@
         <v>69.63999999999999</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Total/xlsx Files/all_stocks.xlsx
+++ b/Files/Total/xlsx Files/all_stocks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Stock</t>
   </si>
@@ -40,22 +40,64 @@
     <t>Change Percentage</t>
   </si>
   <si>
-    <t>ODAS.IS</t>
+    <t>Commission</t>
   </si>
   <si>
     <t>EREGL.IS</t>
   </si>
   <si>
+    <t>SISE.IS</t>
+  </si>
+  <si>
+    <t>THYAO.IS</t>
+  </si>
+  <si>
+    <t>TUKAS.IS</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>192.5%</t>
-  </si>
-  <si>
-    <t>861.5%</t>
-  </si>
-  <si>
-    <t>415.5%</t>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>32.163</t>
+  </si>
+  <si>
+    <t>34.107</t>
+  </si>
+  <si>
+    <t>107.7</t>
+  </si>
+  <si>
+    <t>38.46</t>
+  </si>
+  <si>
+    <t>49.94</t>
+  </si>
+  <si>
+    <t>235.0</t>
+  </si>
+  <si>
+    <t>19.579%</t>
+  </si>
+  <si>
+    <t>46.423%</t>
+  </si>
+  <si>
+    <t>118.199%</t>
+  </si>
+  <si>
+    <t>-50.394%</t>
+  </si>
+  <si>
+    <t>27.56%</t>
   </si>
 </sst>
 </file>
@@ -413,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,83 +486,153 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>1125.7</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>80</v>
-      </c>
-      <c r="E2">
-        <v>11.7</v>
-      </c>
       <c r="F2">
-        <v>234</v>
+        <v>1346.1</v>
       </c>
       <c r="G2">
-        <v>154</v>
+        <v>220.4</v>
       </c>
       <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>1023.2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>1498.2</v>
+      </c>
+      <c r="G3">
+        <v>475</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>323.1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>705</v>
+      </c>
+      <c r="G4">
+        <v>381.9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>40</v>
-      </c>
-      <c r="E3">
-        <v>38.46</v>
-      </c>
-      <c r="F3">
-        <v>384.6</v>
-      </c>
-      <c r="G3">
-        <v>344.6</v>
-      </c>
-      <c r="H3" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>20.32</v>
+      </c>
+      <c r="D5">
+        <v>508</v>
+      </c>
+      <c r="E5">
+        <v>10.08</v>
+      </c>
+      <c r="F5">
+        <v>252</v>
+      </c>
+      <c r="G5">
+        <v>-256</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5">
+        <v>1.06</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>120</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>618.6</v>
-      </c>
-      <c r="G4">
-        <v>498.6</v>
-      </c>
-      <c r="H4" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>2980</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>3801.3</v>
+      </c>
+      <c r="G6">
+        <v>821.3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6">
+        <v>6.23</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Total/xlsx Files/all_stocks.xlsx
+++ b/Files/Total/xlsx Files/all_stocks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Stock</t>
   </si>
@@ -67,6 +67,9 @@
     <t>3.0</t>
   </si>
   <si>
+    <t>25.0</t>
+  </si>
+  <si>
     <t>32.163</t>
   </si>
   <si>
@@ -76,13 +79,7 @@
     <t>107.7</t>
   </si>
   <si>
-    <t>38.46</t>
-  </si>
-  <si>
-    <t>49.94</t>
-  </si>
-  <si>
-    <t>235.0</t>
+    <t>20.32</t>
   </si>
   <si>
     <t>19.579%</t>
@@ -498,13 +495,13 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1125.7</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
+      <c r="E2">
+        <v>38.46</v>
       </c>
       <c r="F2">
         <v>1346.1</v>
@@ -513,7 +510,7 @@
         <v>220.4</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2">
         <v>2.35</v>
@@ -527,13 +524,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>1023.2</v>
       </c>
-      <c r="E3" t="s">
-        <v>21</v>
+      <c r="E3">
+        <v>49.94</v>
       </c>
       <c r="F3">
         <v>1498.2</v>
@@ -542,7 +539,7 @@
         <v>475</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3">
         <v>2.14</v>
@@ -556,13 +553,13 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>323.1</v>
       </c>
-      <c r="E4" t="s">
-        <v>22</v>
+      <c r="E4">
+        <v>235</v>
       </c>
       <c r="F4">
         <v>705</v>
@@ -571,7 +568,7 @@
         <v>381.9</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4">
         <v>0.68</v>
@@ -581,11 +578,11 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <v>20.32</v>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
       </c>
       <c r="D5">
         <v>508</v>
@@ -600,7 +597,7 @@
         <v>-256</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5">
         <v>1.06</v>
@@ -629,7 +626,7 @@
         <v>821.3</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6">
         <v>6.23</v>

--- a/Files/Total/xlsx Files/all_stocks.xlsx
+++ b/Files/Total/xlsx Files/all_stocks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
   <si>
     <t>Stock</t>
   </si>
@@ -43,10 +43,43 @@
     <t>Commission</t>
   </si>
   <si>
+    <t>SISE.IS</t>
+  </si>
+  <si>
+    <t>PETKM.IS</t>
+  </si>
+  <si>
+    <t>ODAS.IS</t>
+  </si>
+  <si>
+    <t>PGSUS.IS</t>
+  </si>
+  <si>
+    <t>AKBNK.IS</t>
+  </si>
+  <si>
+    <t>ALFAS.IS</t>
+  </si>
+  <si>
     <t>EREGL.IS</t>
   </si>
   <si>
-    <t>SISE.IS</t>
+    <t>TUPRS.IS</t>
+  </si>
+  <si>
+    <t>KRDMD.IS</t>
+  </si>
+  <si>
+    <t>YKBNK.IS</t>
+  </si>
+  <si>
+    <t>FROTO.IS</t>
+  </si>
+  <si>
+    <t>CANTE.IS</t>
+  </si>
+  <si>
+    <t>KCHOL.IS</t>
   </si>
   <si>
     <t>THYAO.IS</t>
@@ -55,46 +88,178 @@
     <t>TUKAS.IS</t>
   </si>
   <si>
+    <t>BRKVY.IS</t>
+  </si>
+  <si>
+    <t>KOPOL.IS</t>
+  </si>
+  <si>
+    <t>EUPWR.IS</t>
+  </si>
+  <si>
+    <t>CWENE.IS</t>
+  </si>
+  <si>
+    <t>KLSER.IS</t>
+  </si>
+  <si>
+    <t>ASGYO.IS</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
     <t>35.0</t>
   </si>
   <si>
-    <t>30.0</t>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
   </si>
   <si>
     <t>3.0</t>
   </si>
   <si>
+    <t>6.0</t>
+  </si>
+  <si>
     <t>25.0</t>
   </si>
   <si>
-    <t>32.163</t>
-  </si>
-  <si>
-    <t>34.107</t>
-  </si>
-  <si>
-    <t>107.7</t>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>34.788</t>
+  </si>
+  <si>
+    <t>16.415</t>
+  </si>
+  <si>
+    <t>8.761</t>
+  </si>
+  <si>
+    <t>374.1</t>
+  </si>
+  <si>
+    <t>16.869</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>33.678</t>
+  </si>
+  <si>
+    <t>174.222</t>
+  </si>
+  <si>
+    <t>16.27</t>
+  </si>
+  <si>
+    <t>9.05</t>
+  </si>
+  <si>
+    <t>779.3</t>
+  </si>
+  <si>
+    <t>112.4</t>
+  </si>
+  <si>
+    <t>104.3</t>
   </si>
   <si>
     <t>20.32</t>
   </si>
   <si>
-    <t>19.579%</t>
-  </si>
-  <si>
-    <t>46.423%</t>
-  </si>
-  <si>
-    <t>118.199%</t>
-  </si>
-  <si>
-    <t>-50.394%</t>
-  </si>
-  <si>
-    <t>27.56%</t>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t>40.6</t>
+  </si>
+  <si>
+    <t>108.6</t>
+  </si>
+  <si>
+    <t>49.764%</t>
+  </si>
+  <si>
+    <t>9.473%</t>
+  </si>
+  <si>
+    <t>35.366%</t>
+  </si>
+  <si>
+    <t>155.253%</t>
+  </si>
+  <si>
+    <t>97.164%</t>
+  </si>
+  <si>
+    <t>-100.0%</t>
+  </si>
+  <si>
+    <t>23.462%</t>
+  </si>
+  <si>
+    <t>-37.838%</t>
+  </si>
+  <si>
+    <t>49.6%</t>
+  </si>
+  <si>
+    <t>86.298%</t>
+  </si>
+  <si>
+    <t>22.11%</t>
+  </si>
+  <si>
+    <t>21.975%</t>
+  </si>
+  <si>
+    <t>154.842%</t>
+  </si>
+  <si>
+    <t>-54.281%</t>
+  </si>
+  <si>
+    <t>188.163%</t>
+  </si>
+  <si>
+    <t>366.749%</t>
+  </si>
+  <si>
+    <t>232.781%</t>
+  </si>
+  <si>
+    <t>184.6%</t>
+  </si>
+  <si>
+    <t>80.165%</t>
   </si>
 </sst>
 </file>
@@ -452,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,28 +657,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D2">
-        <v>1125.7</v>
+        <v>1739.4</v>
       </c>
       <c r="E2">
-        <v>38.46</v>
+        <v>52.1</v>
       </c>
       <c r="F2">
-        <v>1346.1</v>
+        <v>2605</v>
       </c>
       <c r="G2">
-        <v>220.4</v>
+        <v>865.6</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I2">
-        <v>2.35</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -521,28 +686,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D3">
-        <v>1023.2</v>
+        <v>656.6</v>
       </c>
       <c r="E3">
-        <v>49.94</v>
+        <v>17.97</v>
       </c>
       <c r="F3">
-        <v>1498.2</v>
+        <v>718.8</v>
       </c>
       <c r="G3">
-        <v>475</v>
+        <v>62.2</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I3">
-        <v>2.14</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -550,28 +715,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>323.1</v>
+        <v>306.65</v>
       </c>
       <c r="E4">
-        <v>235</v>
+        <v>11.86</v>
       </c>
       <c r="F4">
-        <v>705</v>
+        <v>415.1</v>
       </c>
       <c r="G4">
-        <v>381.9</v>
+        <v>108.45</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I4">
-        <v>0.68</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -579,28 +744,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>508</v>
+        <v>748.2</v>
       </c>
       <c r="E5">
-        <v>10.08</v>
+        <v>954.9</v>
       </c>
       <c r="F5">
-        <v>252</v>
+        <v>1909.8</v>
       </c>
       <c r="G5">
-        <v>-256</v>
+        <v>1161.6</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I5">
-        <v>1.06</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -608,28 +773,521 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>2980</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
+        <v>2193</v>
+      </c>
+      <c r="E6">
+        <v>33.26</v>
       </c>
       <c r="F6">
-        <v>3801.3</v>
+        <v>4323.8</v>
       </c>
       <c r="G6">
-        <v>821.3</v>
+        <v>2130.8</v>
       </c>
       <c r="H6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <v>-122.5</v>
+      </c>
+      <c r="E7">
+        <v>831.7</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>122.5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>2189.1</v>
+      </c>
+      <c r="E8">
+        <v>41.58</v>
+      </c>
+      <c r="F8">
+        <v>2702.7</v>
+      </c>
+      <c r="G8">
+        <v>513.6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <v>1568</v>
+      </c>
+      <c r="E9">
+        <v>108.3</v>
+      </c>
+      <c r="F9">
+        <v>974.7</v>
+      </c>
+      <c r="G9">
+        <v>-593.3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>1301.6</v>
+      </c>
+      <c r="E10">
+        <v>24.34</v>
+      </c>
+      <c r="F10">
+        <v>1947.2</v>
+      </c>
+      <c r="G10">
+        <v>645.6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>362</v>
+      </c>
+      <c r="E11">
+        <v>16.86</v>
+      </c>
+      <c r="F11">
+        <v>674.4</v>
+      </c>
+      <c r="G11">
+        <v>312.4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>1558.6</v>
+      </c>
+      <c r="E12">
+        <v>951.6</v>
+      </c>
+      <c r="F12">
+        <v>1903.2</v>
+      </c>
+      <c r="G12">
+        <v>344.6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>159.6</v>
+      </c>
+      <c r="E13">
+        <v>19.02</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>-159.6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <v>337.2</v>
+      </c>
+      <c r="E14">
+        <v>137.1</v>
+      </c>
+      <c r="F14">
+        <v>411.3</v>
+      </c>
+      <c r="G14">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <v>625.8</v>
+      </c>
+      <c r="E15">
+        <v>265.8</v>
+      </c>
+      <c r="F15">
+        <v>1594.8</v>
+      </c>
+      <c r="G15">
+        <v>969</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>508</v>
+      </c>
+      <c r="E16">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="F16">
+        <v>232.25</v>
+      </c>
+      <c r="G16">
+        <v>-275.75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>-175.78</v>
+      </c>
+      <c r="E17">
+        <v>44.86</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>175.78</v>
+      </c>
+      <c r="H17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <v>465.5</v>
+      </c>
+      <c r="E18">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="F18">
+        <v>1341.4</v>
+      </c>
+      <c r="G18">
+        <v>875.9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="I6">
-        <v>6.23</v>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19">
+        <v>812</v>
+      </c>
+      <c r="E19">
+        <v>189.5</v>
+      </c>
+      <c r="F19">
+        <v>3790</v>
+      </c>
+      <c r="G19">
+        <v>2978</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <v>760.2</v>
+      </c>
+      <c r="E20">
+        <v>361.4</v>
+      </c>
+      <c r="F20">
+        <v>2529.8</v>
+      </c>
+      <c r="G20">
+        <v>1769.6</v>
+      </c>
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21">
+        <v>1250</v>
+      </c>
+      <c r="E21">
+        <v>71.15000000000001</v>
+      </c>
+      <c r="F21">
+        <v>3557.5</v>
+      </c>
+      <c r="G21">
+        <v>2307.5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22">
+        <v>-330</v>
+      </c>
+      <c r="E22">
+        <v>19.02</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>330</v>
+      </c>
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>17541.45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>31603.55</v>
+      </c>
+      <c r="G23">
+        <v>14690.38</v>
+      </c>
+      <c r="H23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23">
+        <v>38.53</v>
       </c>
     </row>
   </sheetData>
